--- a/Testdata/CoursesDetails.xlsx
+++ b/Testdata/CoursesDetails.xlsx
@@ -20,409 +20,343 @@
     <t>Counts</t>
   </si>
   <si>
-    <t xml:space="preserve">Beginner
-</t>
-  </si>
-  <si>
-    <t>(5,355)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Intermediate
-</t>
-  </si>
-  <si>
-    <t>(3,473)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Advanced
-</t>
-  </si>
-  <si>
-    <t>(376)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mixed
-</t>
-  </si>
-  <si>
-    <t>(990)</t>
+    <t>Beginner</t>
+  </si>
+  <si>
+    <t>(5,373)</t>
+  </si>
+  <si>
+    <t>Intermediate</t>
+  </si>
+  <si>
+    <t>(3,476)</t>
+  </si>
+  <si>
+    <t>Advanced</t>
+  </si>
+  <si>
+    <t>(373)</t>
+  </si>
+  <si>
+    <t>Mixed</t>
+  </si>
+  <si>
+    <t>(992)</t>
   </si>
   <si>
     <t>Languages</t>
   </si>
   <si>
-    <t xml:space="preserve">English
-</t>
-  </si>
-  <si>
-    <t>(9,021)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spanish
-</t>
-  </si>
-  <si>
-    <t>(4,470)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kazakh
-</t>
-  </si>
-  <si>
-    <t>(4,126)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">French
-</t>
-  </si>
-  <si>
-    <t>(3,982)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arabic
-</t>
-  </si>
-  <si>
-    <t>(3,826)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">German
-</t>
-  </si>
-  <si>
-    <t>(3,783)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Portuguese
-</t>
-  </si>
-  <si>
-    <t>(2,989)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Indonesian
-</t>
-  </si>
-  <si>
-    <t>(2,825)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chinese
-</t>
-  </si>
-  <si>
-    <t>(2,653)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Japanese
-</t>
-  </si>
-  <si>
-    <t>(2,533)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Russian
-</t>
-  </si>
-  <si>
-    <t>(2,516)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Korean
-</t>
-  </si>
-  <si>
-    <t>(2,484)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hindi
-</t>
-  </si>
-  <si>
-    <t>(2,417)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Italian
-</t>
-  </si>
-  <si>
-    <t>(2,402)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Turkish
-</t>
-  </si>
-  <si>
-    <t>(2,350)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thai
-</t>
-  </si>
-  <si>
-    <t>(2,328)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ukrainian
-</t>
-  </si>
-  <si>
-    <t>(2,326)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Greek
-</t>
-  </si>
-  <si>
-    <t>(2,307)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Polish
-</t>
-  </si>
-  <si>
-    <t>(2,288)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dutch
-</t>
-  </si>
-  <si>
-    <t>(2,283)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Swedish
-</t>
-  </si>
-  <si>
-    <t>(2,261)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hungarian
-</t>
-  </si>
-  <si>
-    <t>(1,928)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vietnamese
-</t>
-  </si>
-  <si>
-    <t>(1,815)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pushto
-</t>
-  </si>
-  <si>
-    <t>(1,644)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uzbek
-</t>
-  </si>
-  <si>
-    <t>(1,585)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Azerbaijani
-</t>
-  </si>
-  <si>
-    <t>(1,354)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Urdu
-</t>
-  </si>
-  <si>
-    <t>(1,339)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bengali
-</t>
-  </si>
-  <si>
-    <t>(1,333)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oriya
-</t>
+    <t>English</t>
+  </si>
+  <si>
+    <t>(9,031)</t>
+  </si>
+  <si>
+    <t>Spanish</t>
+  </si>
+  <si>
+    <t>(4,463)</t>
+  </si>
+  <si>
+    <t>Kazakh</t>
+  </si>
+  <si>
+    <t>(4,113)</t>
+  </si>
+  <si>
+    <t>French</t>
+  </si>
+  <si>
+    <t>(3,966)</t>
+  </si>
+  <si>
+    <t>Arabic</t>
+  </si>
+  <si>
+    <t>(3,811)</t>
+  </si>
+  <si>
+    <t>German</t>
+  </si>
+  <si>
+    <t>(3,768)</t>
+  </si>
+  <si>
+    <t>Portuguese</t>
+  </si>
+  <si>
+    <t>(2,973)</t>
+  </si>
+  <si>
+    <t>Indonesian</t>
+  </si>
+  <si>
+    <t>(2,811)</t>
+  </si>
+  <si>
+    <t>Chinese</t>
+  </si>
+  <si>
+    <t>(2,640)</t>
+  </si>
+  <si>
+    <t>Japanese</t>
+  </si>
+  <si>
+    <t>(2,522)</t>
+  </si>
+  <si>
+    <t>Russian</t>
+  </si>
+  <si>
+    <t>(2,505)</t>
+  </si>
+  <si>
+    <t>Korean</t>
+  </si>
+  <si>
+    <t>(2,470)</t>
+  </si>
+  <si>
+    <t>Hindi</t>
+  </si>
+  <si>
+    <t>(2,405)</t>
+  </si>
+  <si>
+    <t>Italian</t>
+  </si>
+  <si>
+    <t>(2,390)</t>
+  </si>
+  <si>
+    <t>Turkish</t>
+  </si>
+  <si>
+    <t>(2,338)</t>
+  </si>
+  <si>
+    <t>Thai</t>
+  </si>
+  <si>
+    <t>(2,316)</t>
+  </si>
+  <si>
+    <t>Ukrainian</t>
+  </si>
+  <si>
+    <t>(2,314)</t>
+  </si>
+  <si>
+    <t>Greek</t>
+  </si>
+  <si>
+    <t>(2,296)</t>
+  </si>
+  <si>
+    <t>Polish</t>
+  </si>
+  <si>
+    <t>(2,277)</t>
+  </si>
+  <si>
+    <t>Dutch</t>
+  </si>
+  <si>
+    <t>(2,272)</t>
+  </si>
+  <si>
+    <t>Swedish</t>
+  </si>
+  <si>
+    <t>(2,250)</t>
+  </si>
+  <si>
+    <t>Hungarian</t>
+  </si>
+  <si>
+    <t>(1,916)</t>
+  </si>
+  <si>
+    <t>Vietnamese</t>
+  </si>
+  <si>
+    <t>(1,802)</t>
+  </si>
+  <si>
+    <t>Pushto</t>
+  </si>
+  <si>
+    <t>(1,635)</t>
+  </si>
+  <si>
+    <t>Uzbek</t>
+  </si>
+  <si>
+    <t>(1,579)</t>
+  </si>
+  <si>
+    <t>Azerbaijani</t>
+  </si>
+  <si>
+    <t>(1,344)</t>
+  </si>
+  <si>
+    <t>Urdu</t>
+  </si>
+  <si>
+    <t>(1,329)</t>
+  </si>
+  <si>
+    <t>Bengali</t>
+  </si>
+  <si>
+    <t>(1,323)</t>
+  </si>
+  <si>
+    <t>Oriya</t>
   </si>
   <si>
     <t>(259)</t>
   </si>
   <si>
-    <t xml:space="preserve">Persian
-</t>
+    <t>Persian</t>
   </si>
   <si>
     <t>(41)</t>
   </si>
   <si>
-    <t xml:space="preserve">Romanian
-</t>
-  </si>
-  <si>
-    <t>(37)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hebrew
-</t>
+    <t>Romanian</t>
+  </si>
+  <si>
+    <t>(38)</t>
+  </si>
+  <si>
+    <t>Hebrew</t>
   </si>
   <si>
     <t>(22)</t>
   </si>
   <si>
-    <t xml:space="preserve">Javanese
-</t>
+    <t>Javanese</t>
   </si>
   <si>
     <t>(16)</t>
   </si>
   <si>
-    <t xml:space="preserve">Serbian
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Afrikaans
-</t>
+    <t>Serbian</t>
+  </si>
+  <si>
+    <t>Afrikaans</t>
   </si>
   <si>
     <t>(10)</t>
   </si>
   <si>
-    <t xml:space="preserve">Estonian
-</t>
+    <t>Estonian</t>
   </si>
   <si>
     <t>(9)</t>
   </si>
   <si>
-    <t xml:space="preserve">Tamil
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Telugu
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bulgarian
-</t>
+    <t>Tamil</t>
+  </si>
+  <si>
+    <t>Telugu</t>
+  </si>
+  <si>
+    <t>Bulgarian</t>
   </si>
   <si>
     <t>(7)</t>
   </si>
   <si>
-    <t xml:space="preserve">Mongolian
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Catalan
-</t>
+    <t>Mongolian</t>
+  </si>
+  <si>
+    <t>Catalan</t>
   </si>
   <si>
     <t>(6)</t>
   </si>
   <si>
-    <t xml:space="preserve">Czech
-</t>
+    <t>Czech</t>
   </si>
   <si>
     <t>(5)</t>
   </si>
   <si>
-    <t xml:space="preserve">Lithuanian
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Albanian
-</t>
+    <t>Lithuanian</t>
+  </si>
+  <si>
+    <t>Albanian</t>
   </si>
   <si>
     <t>(4)</t>
   </si>
   <si>
-    <t xml:space="preserve">Amharic
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Burmese
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nepali
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Somali
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Georgian
-</t>
+    <t>Amharic</t>
+  </si>
+  <si>
+    <t>Burmese</t>
+  </si>
+  <si>
+    <t>Nepali</t>
+  </si>
+  <si>
+    <t>Somali</t>
+  </si>
+  <si>
+    <t>Slovak</t>
   </si>
   <si>
     <t>(3)</t>
   </si>
   <si>
-    <t xml:space="preserve">Slovak
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Croatian
-</t>
+    <t>Croatian</t>
   </si>
   <si>
     <t>(2)</t>
   </si>
   <si>
-    <t xml:space="preserve">Marathi
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Swahili
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Danish
-</t>
+    <t>Georgian</t>
+  </si>
+  <si>
+    <t>Marathi</t>
+  </si>
+  <si>
+    <t>Swahili</t>
+  </si>
+  <si>
+    <t>Danish</t>
   </si>
   <si>
     <t>(1)</t>
   </si>
   <si>
-    <t xml:space="preserve">Finnish
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kannada
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Khmer
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kinyarwanda
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Macedonian
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nyanja
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Slovenian
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tagalog
-</t>
+    <t>Finnish</t>
+  </si>
+  <si>
+    <t>Kannada</t>
+  </si>
+  <si>
+    <t>Khmer</t>
+  </si>
+  <si>
+    <t>Kinyarwanda</t>
+  </si>
+  <si>
+    <t>Macedonian</t>
+  </si>
+  <si>
+    <t>Nyanja</t>
+  </si>
+  <si>
+    <t>Slovenian</t>
+  </si>
+  <si>
+    <t>Tagalog</t>
   </si>
 </sst>
 </file>
@@ -922,15 +856,15 @@
         <v>100</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="B58" t="s" s="0">
         <v>101</v>
-      </c>
-      <c r="B58" t="s" s="0">
-        <v>102</v>
       </c>
     </row>
     <row r="59">
@@ -938,7 +872,7 @@
         <v>103</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="60">
@@ -946,7 +880,7 @@
         <v>104</v>
       </c>
       <c r="B60" t="s" s="0">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="61">

--- a/Testdata/CoursesDetails.xlsx
+++ b/Testdata/CoursesDetails.xlsx
@@ -20,409 +20,343 @@
     <t>Counts</t>
   </si>
   <si>
-    <t xml:space="preserve">Beginner
-</t>
-  </si>
-  <si>
-    <t>(5,465)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Intermediate
-</t>
-  </si>
-  <si>
-    <t>(3,501)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Advanced
-</t>
-  </si>
-  <si>
-    <t>(378)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mixed
-</t>
-  </si>
-  <si>
-    <t>(997)</t>
+    <t>Beginner</t>
+  </si>
+  <si>
+    <t>(5,373)</t>
+  </si>
+  <si>
+    <t>Intermediate</t>
+  </si>
+  <si>
+    <t>(3,476)</t>
+  </si>
+  <si>
+    <t>Advanced</t>
+  </si>
+  <si>
+    <t>(373)</t>
+  </si>
+  <si>
+    <t>Mixed</t>
+  </si>
+  <si>
+    <t>(992)</t>
   </si>
   <si>
     <t>Languages</t>
   </si>
   <si>
-    <t xml:space="preserve">English
-</t>
-  </si>
-  <si>
-    <t>(9,140)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spanish
-</t>
-  </si>
-  <si>
-    <t>(4,481)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kazakh
-</t>
-  </si>
-  <si>
-    <t>(4,121)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">French
-</t>
-  </si>
-  <si>
-    <t>(3,981)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arabic
-</t>
-  </si>
-  <si>
-    <t>(3,823)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">German
-</t>
-  </si>
-  <si>
-    <t>(3,778)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Portuguese
-</t>
-  </si>
-  <si>
-    <t>(2,991)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Indonesian
-</t>
-  </si>
-  <si>
-    <t>(2,820)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chinese
-</t>
-  </si>
-  <si>
-    <t>(2,649)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Japanese
-</t>
-  </si>
-  <si>
-    <t>(2,530)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Russian
-</t>
-  </si>
-  <si>
-    <t>(2,511)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Korean
-</t>
-  </si>
-  <si>
-    <t>(2,478)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hindi
-</t>
-  </si>
-  <si>
-    <t>(2,412)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Italian
-</t>
-  </si>
-  <si>
-    <t>(2,396)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Turkish
-</t>
-  </si>
-  <si>
-    <t>(2,344)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thai
-</t>
-  </si>
-  <si>
-    <t>(2,324)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ukrainian
-</t>
-  </si>
-  <si>
-    <t>(2,321)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Greek
-</t>
-  </si>
-  <si>
-    <t>(2,302)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Polish
-</t>
-  </si>
-  <si>
-    <t>(2,283)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dutch
-</t>
-  </si>
-  <si>
-    <t>(2,278)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Swedish
-</t>
-  </si>
-  <si>
-    <t>(2,256)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hungarian
-</t>
-  </si>
-  <si>
-    <t>(1,923)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vietnamese
-</t>
-  </si>
-  <si>
-    <t>(1,808)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pushto
-</t>
-  </si>
-  <si>
-    <t>(1,639)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uzbek
-</t>
-  </si>
-  <si>
-    <t>(1,582)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Azerbaijani
-</t>
-  </si>
-  <si>
-    <t>(1,350)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Urdu
-</t>
-  </si>
-  <si>
-    <t>(1,335)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bengali
-</t>
+    <t>English</t>
+  </si>
+  <si>
+    <t>(9,031)</t>
+  </si>
+  <si>
+    <t>Spanish</t>
+  </si>
+  <si>
+    <t>(4,463)</t>
+  </si>
+  <si>
+    <t>Kazakh</t>
+  </si>
+  <si>
+    <t>(4,113)</t>
+  </si>
+  <si>
+    <t>French</t>
+  </si>
+  <si>
+    <t>(3,966)</t>
+  </si>
+  <si>
+    <t>Arabic</t>
+  </si>
+  <si>
+    <t>(3,811)</t>
+  </si>
+  <si>
+    <t>German</t>
+  </si>
+  <si>
+    <t>(3,768)</t>
+  </si>
+  <si>
+    <t>Portuguese</t>
+  </si>
+  <si>
+    <t>(2,973)</t>
+  </si>
+  <si>
+    <t>Indonesian</t>
+  </si>
+  <si>
+    <t>(2,811)</t>
+  </si>
+  <si>
+    <t>Chinese</t>
+  </si>
+  <si>
+    <t>(2,640)</t>
+  </si>
+  <si>
+    <t>Japanese</t>
+  </si>
+  <si>
+    <t>(2,522)</t>
+  </si>
+  <si>
+    <t>Russian</t>
+  </si>
+  <si>
+    <t>(2,505)</t>
+  </si>
+  <si>
+    <t>Korean</t>
+  </si>
+  <si>
+    <t>(2,470)</t>
+  </si>
+  <si>
+    <t>Hindi</t>
+  </si>
+  <si>
+    <t>(2,405)</t>
+  </si>
+  <si>
+    <t>Italian</t>
+  </si>
+  <si>
+    <t>(2,390)</t>
+  </si>
+  <si>
+    <t>Turkish</t>
+  </si>
+  <si>
+    <t>(2,338)</t>
+  </si>
+  <si>
+    <t>Thai</t>
+  </si>
+  <si>
+    <t>(2,316)</t>
+  </si>
+  <si>
+    <t>Ukrainian</t>
+  </si>
+  <si>
+    <t>(2,314)</t>
+  </si>
+  <si>
+    <t>Greek</t>
+  </si>
+  <si>
+    <t>(2,296)</t>
+  </si>
+  <si>
+    <t>Polish</t>
+  </si>
+  <si>
+    <t>(2,277)</t>
+  </si>
+  <si>
+    <t>Dutch</t>
+  </si>
+  <si>
+    <t>(2,272)</t>
+  </si>
+  <si>
+    <t>Swedish</t>
+  </si>
+  <si>
+    <t>(2,250)</t>
+  </si>
+  <si>
+    <t>Hungarian</t>
+  </si>
+  <si>
+    <t>(1,916)</t>
+  </si>
+  <si>
+    <t>Vietnamese</t>
+  </si>
+  <si>
+    <t>(1,802)</t>
+  </si>
+  <si>
+    <t>Pushto</t>
+  </si>
+  <si>
+    <t>(1,635)</t>
+  </si>
+  <si>
+    <t>Uzbek</t>
+  </si>
+  <si>
+    <t>(1,579)</t>
+  </si>
+  <si>
+    <t>Azerbaijani</t>
+  </si>
+  <si>
+    <t>(1,344)</t>
+  </si>
+  <si>
+    <t>Urdu</t>
   </si>
   <si>
     <t>(1,329)</t>
   </si>
   <si>
-    <t xml:space="preserve">Oriya
-</t>
-  </si>
-  <si>
-    <t>(260)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Persian
-</t>
+    <t>Bengali</t>
+  </si>
+  <si>
+    <t>(1,323)</t>
+  </si>
+  <si>
+    <t>Oriya</t>
+  </si>
+  <si>
+    <t>(259)</t>
+  </si>
+  <si>
+    <t>Persian</t>
   </si>
   <si>
     <t>(41)</t>
   </si>
   <si>
-    <t xml:space="preserve">Romanian
-</t>
-  </si>
-  <si>
-    <t>(37)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hebrew
-</t>
+    <t>Romanian</t>
+  </si>
+  <si>
+    <t>(38)</t>
+  </si>
+  <si>
+    <t>Hebrew</t>
   </si>
   <si>
     <t>(22)</t>
   </si>
   <si>
-    <t xml:space="preserve">Javanese
-</t>
+    <t>Javanese</t>
   </si>
   <si>
     <t>(16)</t>
   </si>
   <si>
-    <t xml:space="preserve">Serbian
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Afrikaans
-</t>
+    <t>Serbian</t>
+  </si>
+  <si>
+    <t>Afrikaans</t>
   </si>
   <si>
     <t>(10)</t>
   </si>
   <si>
-    <t xml:space="preserve">Estonian
-</t>
+    <t>Estonian</t>
   </si>
   <si>
     <t>(9)</t>
   </si>
   <si>
-    <t xml:space="preserve">Tamil
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Telugu
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bulgarian
-</t>
+    <t>Tamil</t>
+  </si>
+  <si>
+    <t>Telugu</t>
+  </si>
+  <si>
+    <t>Bulgarian</t>
   </si>
   <si>
     <t>(7)</t>
   </si>
   <si>
-    <t xml:space="preserve">Mongolian
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Catalan
-</t>
+    <t>Mongolian</t>
+  </si>
+  <si>
+    <t>Catalan</t>
   </si>
   <si>
     <t>(6)</t>
   </si>
   <si>
-    <t xml:space="preserve">Czech
-</t>
+    <t>Czech</t>
   </si>
   <si>
     <t>(5)</t>
   </si>
   <si>
-    <t xml:space="preserve">Lithuanian
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Albanian
-</t>
+    <t>Lithuanian</t>
+  </si>
+  <si>
+    <t>Albanian</t>
   </si>
   <si>
     <t>(4)</t>
   </si>
   <si>
-    <t xml:space="preserve">Amharic
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Burmese
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nepali
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Somali
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Georgian
-</t>
+    <t>Amharic</t>
+  </si>
+  <si>
+    <t>Burmese</t>
+  </si>
+  <si>
+    <t>Nepali</t>
+  </si>
+  <si>
+    <t>Somali</t>
+  </si>
+  <si>
+    <t>Slovak</t>
   </si>
   <si>
     <t>(3)</t>
   </si>
   <si>
-    <t xml:space="preserve">Slovak
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Croatian
-</t>
+    <t>Croatian</t>
   </si>
   <si>
     <t>(2)</t>
   </si>
   <si>
-    <t xml:space="preserve">Marathi
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Swahili
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Danish
-</t>
+    <t>Georgian</t>
+  </si>
+  <si>
+    <t>Marathi</t>
+  </si>
+  <si>
+    <t>Swahili</t>
+  </si>
+  <si>
+    <t>Danish</t>
   </si>
   <si>
     <t>(1)</t>
   </si>
   <si>
-    <t xml:space="preserve">Finnish
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kannada
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Khmer
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kinyarwanda
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Macedonian
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nyanja
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Slovenian
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tagalog
-</t>
+    <t>Finnish</t>
+  </si>
+  <si>
+    <t>Kannada</t>
+  </si>
+  <si>
+    <t>Khmer</t>
+  </si>
+  <si>
+    <t>Kinyarwanda</t>
+  </si>
+  <si>
+    <t>Macedonian</t>
+  </si>
+  <si>
+    <t>Nyanja</t>
+  </si>
+  <si>
+    <t>Slovenian</t>
+  </si>
+  <si>
+    <t>Tagalog</t>
   </si>
 </sst>
 </file>
@@ -922,15 +856,15 @@
         <v>100</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="B58" t="s" s="0">
         <v>101</v>
-      </c>
-      <c r="B58" t="s" s="0">
-        <v>102</v>
       </c>
     </row>
     <row r="59">
@@ -938,7 +872,7 @@
         <v>103</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="60">
@@ -946,7 +880,7 @@
         <v>104</v>
       </c>
       <c r="B60" t="s" s="0">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="61">

--- a/Testdata/CoursesDetails.xlsx
+++ b/Testdata/CoursesDetails.xlsx
@@ -23,25 +23,25 @@
     <t>Beginner</t>
   </si>
   <si>
-    <t>(5,373)</t>
+    <t>(5,467)</t>
   </si>
   <si>
     <t>Intermediate</t>
   </si>
   <si>
-    <t>(3,476)</t>
+    <t>(3,501)</t>
   </si>
   <si>
     <t>Advanced</t>
   </si>
   <si>
-    <t>(373)</t>
+    <t>(378)</t>
   </si>
   <si>
     <t>Mixed</t>
   </si>
   <si>
-    <t>(992)</t>
+    <t>(997)</t>
   </si>
   <si>
     <t>Languages</t>
@@ -50,175 +50,175 @@
     <t>English</t>
   </si>
   <si>
-    <t>(9,031)</t>
+    <t>(9,142)</t>
   </si>
   <si>
     <t>Spanish</t>
   </si>
   <si>
-    <t>(4,463)</t>
+    <t>(4,481)</t>
   </si>
   <si>
     <t>Kazakh</t>
   </si>
   <si>
-    <t>(4,113)</t>
+    <t>(4,121)</t>
   </si>
   <si>
     <t>French</t>
   </si>
   <si>
-    <t>(3,966)</t>
+    <t>(3,981)</t>
   </si>
   <si>
     <t>Arabic</t>
   </si>
   <si>
-    <t>(3,811)</t>
+    <t>(3,823)</t>
   </si>
   <si>
     <t>German</t>
   </si>
   <si>
-    <t>(3,768)</t>
+    <t>(3,778)</t>
   </si>
   <si>
     <t>Portuguese</t>
   </si>
   <si>
-    <t>(2,973)</t>
+    <t>(2,991)</t>
   </si>
   <si>
     <t>Indonesian</t>
   </si>
   <si>
-    <t>(2,811)</t>
+    <t>(2,820)</t>
   </si>
   <si>
     <t>Chinese</t>
   </si>
   <si>
-    <t>(2,640)</t>
+    <t>(2,649)</t>
   </si>
   <si>
     <t>Japanese</t>
   </si>
   <si>
-    <t>(2,522)</t>
+    <t>(2,530)</t>
   </si>
   <si>
     <t>Russian</t>
   </si>
   <si>
-    <t>(2,505)</t>
+    <t>(2,511)</t>
   </si>
   <si>
     <t>Korean</t>
   </si>
   <si>
-    <t>(2,470)</t>
+    <t>(2,478)</t>
   </si>
   <si>
     <t>Hindi</t>
   </si>
   <si>
-    <t>(2,405)</t>
+    <t>(2,412)</t>
   </si>
   <si>
     <t>Italian</t>
   </si>
   <si>
-    <t>(2,390)</t>
+    <t>(2,396)</t>
   </si>
   <si>
     <t>Turkish</t>
   </si>
   <si>
-    <t>(2,338)</t>
+    <t>(2,344)</t>
   </si>
   <si>
     <t>Thai</t>
   </si>
   <si>
-    <t>(2,316)</t>
+    <t>(2,324)</t>
   </si>
   <si>
     <t>Ukrainian</t>
   </si>
   <si>
-    <t>(2,314)</t>
+    <t>(2,321)</t>
   </si>
   <si>
     <t>Greek</t>
   </si>
   <si>
-    <t>(2,296)</t>
+    <t>(2,302)</t>
   </si>
   <si>
     <t>Polish</t>
   </si>
   <si>
-    <t>(2,277)</t>
+    <t>(2,283)</t>
   </si>
   <si>
     <t>Dutch</t>
   </si>
   <si>
-    <t>(2,272)</t>
+    <t>(2,278)</t>
   </si>
   <si>
     <t>Swedish</t>
   </si>
   <si>
-    <t>(2,250)</t>
+    <t>(2,256)</t>
   </si>
   <si>
     <t>Hungarian</t>
   </si>
   <si>
-    <t>(1,916)</t>
+    <t>(1,923)</t>
   </si>
   <si>
     <t>Vietnamese</t>
   </si>
   <si>
-    <t>(1,802)</t>
+    <t>(1,808)</t>
   </si>
   <si>
     <t>Pushto</t>
   </si>
   <si>
-    <t>(1,635)</t>
+    <t>(1,639)</t>
   </si>
   <si>
     <t>Uzbek</t>
   </si>
   <si>
-    <t>(1,579)</t>
+    <t>(1,582)</t>
   </si>
   <si>
     <t>Azerbaijani</t>
   </si>
   <si>
-    <t>(1,344)</t>
+    <t>(1,350)</t>
   </si>
   <si>
     <t>Urdu</t>
   </si>
   <si>
+    <t>(1,335)</t>
+  </si>
+  <si>
+    <t>Bengali</t>
+  </si>
+  <si>
     <t>(1,329)</t>
   </si>
   <si>
-    <t>Bengali</t>
-  </si>
-  <si>
-    <t>(1,323)</t>
-  </si>
-  <si>
     <t>Oriya</t>
   </si>
   <si>
-    <t>(259)</t>
+    <t>(260)</t>
   </si>
   <si>
     <t>Persian</t>
@@ -230,7 +230,7 @@
     <t>Romanian</t>
   </si>
   <si>
-    <t>(38)</t>
+    <t>(37)</t>
   </si>
   <si>
     <t>Hebrew</t>
@@ -308,19 +308,19 @@
     <t>Somali</t>
   </si>
   <si>
+    <t>Georgian</t>
+  </si>
+  <si>
+    <t>(3)</t>
+  </si>
+  <si>
     <t>Slovak</t>
   </si>
   <si>
-    <t>(3)</t>
-  </si>
-  <si>
     <t>Croatian</t>
   </si>
   <si>
     <t>(2)</t>
-  </si>
-  <si>
-    <t>Georgian</t>
   </si>
   <si>
     <t>Marathi</t>
@@ -856,15 +856,15 @@
         <v>100</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="B58" t="s" s="0">
         <v>102</v>
-      </c>
-      <c r="B58" t="s" s="0">
-        <v>101</v>
       </c>
     </row>
     <row r="59">
@@ -872,7 +872,7 @@
         <v>103</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="60">
@@ -880,7 +880,7 @@
         <v>104</v>
       </c>
       <c r="B60" t="s" s="0">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="61">
